--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07730661-D376-4A9E-B3C3-4115699E9AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3703F-59CB-4432-9E1D-C4F141444318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="111">
   <si>
     <t>UC_N</t>
   </si>
@@ -276,7 +276,7 @@
     <t>H1</t>
   </si>
   <si>
-    <t>S1,S2,S3</t>
+    <t>S1,S2</t>
   </si>
   <si>
     <t>S2</t>
@@ -285,9 +285,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -336,18 +333,6 @@
     <t>S2aH4</t>
   </si>
   <si>
-    <t>S3aH1</t>
-  </si>
-  <si>
-    <t>S3aH2</t>
-  </si>
-  <si>
-    <t>S3aH3</t>
-  </si>
-  <si>
-    <t>S3aH4</t>
-  </si>
-  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -363,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S3aH3,S3aH2,S2aH2</t>
-  </si>
-  <si>
-    <t>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</t>
+    <t>S2aH2,S1aH2,S2aH3,S1aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -938,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</v>
+        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -970,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S3aH3,S3aH2,S2aH2</v>
+        <v>S2aH2,S1aH2,S2aH3,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -982,7 +967,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -993,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1001,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C779E18-CD34-4F9E-886B-6611B58778D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0363204D-C259-463A-9D0D-8925D4A3FD85}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1592,7 +1577,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -1641,11 +1626,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -1653,7 +1635,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1665,8 +1647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B0C9AA-ADC4-443F-B62C-B43AAC034736}">
-  <dimension ref="B2:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDDA8F4-01A1-47E5-BD73-E6BBE8B0EFFC}">
+  <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,13 +1656,13 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
@@ -1688,373 +1670,260 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>86</v>
-      </c>
-      <c r="K3" t="s">
-        <v>87</v>
       </c>
       <c r="M3" t="s">
         <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>2.493544E-2</v>
       </c>
       <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>0.21482071822838189</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
         <v>79</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>3.9224370000000001E-2</v>
       </c>
       <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>90</v>
-      </c>
-      <c r="H5" t="s">
-        <v>91</v>
       </c>
       <c r="I5">
         <v>2.7641735376428118E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.16266774641369736</v>
+        <v>0.85512494215640922</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>0.59627662000000003</v>
       </c>
       <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <v>0.29032781991893586</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6">
-        <v>0.85512494215640922</v>
-      </c>
-      <c r="O6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>6.6934690000000005E-2</v>
       </c>
       <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <v>0.16935106740660433</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1.1604300000000001E-3</v>
       </c>
       <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8">
-        <v>2.9172626036931579E-2</v>
+        <v>9.7906899623079788E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9">
-        <v>9.4349900000000007E-3</v>
+        <v>1.0125790000000001E-2</v>
       </c>
       <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9">
-        <v>3.9451012011446837E-3</v>
+        <v>1.2133811730211863E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>0.14450927</v>
+        <v>0.25384706000000001</v>
       </c>
       <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10">
-        <v>4.1726140067860754E-2</v>
+        <v>0.11475153684469283</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>7.4955500000000001E-3</v>
       </c>
       <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11">
-        <v>2.1924450084919157E-2</v>
+        <v>7.306641087148831E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
         <v>98</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12">
-        <v>6.8734273586148212E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13">
-        <v>6.9079999999999999E-4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13">
-        <v>8.188710529067179E-3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>0.10933779</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14">
-        <v>7.3025396776832077E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15">
-        <v>5.1141960786569157E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +1932,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60CC5E-2932-4A58-A00E-4962C804F7A4}">
-  <dimension ref="B2:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0E3E07-A939-44D6-8195-2F4A01F9B508}">
+  <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2072,45 +1941,45 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" t="s">
         <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -2121,16 +1990,16 @@
         <v>0.12300126793128308</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4">
         <v>0.18743958210833722</v>
@@ -2139,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4">
         <v>0.38532663933908951</v>
@@ -2153,16 +2022,16 @@
         <v>3.5442408572209934E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5">
         <v>3.0879940804379922E-2</v>
@@ -2171,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5">
         <v>0.14815607348908388</v>
@@ -2185,16 +2054,16 @@
         <v>0.36070705815080928</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6">
         <v>0.28100878138966023</v>
@@ -2203,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6">
         <v>0.18114041310354478</v>
@@ -2217,16 +2086,16 @@
         <v>0.14660269000323201</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J7">
         <v>0.17122948990779774</v>
@@ -2235,7 +2104,7 @@
         <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7">
         <v>0.26952522576045035</v>
@@ -2243,390 +2112,218 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>5.5707762557077628E-2</v>
+        <v>0.11141552511415526</v>
       </c>
       <c r="C8">
-        <v>3.0876861497153366E-2</v>
+        <v>6.1753722994306731E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8">
-        <v>4.3902320508748476E-2</v>
+        <v>9.220596741667357E-2</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O8">
-        <v>0.26595748196469948</v>
+        <v>0.37856311918249053</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>6.9634703196347035E-3</v>
+        <v>1.3926940639269407E-2</v>
       </c>
       <c r="C9">
-        <v>8.8970655263572278E-3</v>
+        <v>1.7794131052714456E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9">
-        <v>7.1129304901544257E-3</v>
+        <v>1.5111496651677339E-2</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9">
-        <v>6.9062180476435531E-2</v>
+        <v>0.15698859464131165</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>6.2671232876712335E-2</v>
+        <v>0.12534246575342467</v>
       </c>
       <c r="C10">
-        <v>9.0547862334153767E-2</v>
+        <v>0.18109572466830753</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10">
-        <v>6.4671632842624185E-2</v>
+        <v>0.13730909441362815</v>
       </c>
       <c r="M10" t="s">
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O10">
-        <v>9.1608554297515798E-2</v>
+        <v>0.17478635380331653</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>4.1780821917808221E-2</v>
+        <v>8.3561643835616442E-2</v>
       </c>
       <c r="C11">
-        <v>3.6801498313568527E-2</v>
+        <v>7.3602996627137054E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11">
-        <v>3.9739318514145867E-2</v>
+        <v>8.4815647307845868E-2</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O11">
-        <v>0.13471851808255852</v>
+        <v>0.25737885592329413</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
-        <v>109</v>
-      </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J12">
-        <v>4.8303646907925109E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12">
-        <v>0.33115646790490216</v>
+        <v>0.21904557675108052</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C13">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>105</v>
       </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J13">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>99</v>
-      </c>
-      <c r="O13">
-        <v>0.10528395697637927</v>
+        <v>2.7976368189220828E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>6.2671232876712335E-2</v>
-      </c>
-      <c r="C14">
-        <v>9.0547862334153767E-2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>105</v>
       </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J14">
-        <v>7.2637461571003981E-2</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>100</v>
-      </c>
-      <c r="O14">
-        <v>0.12270559272841641</v>
+        <v>0.25203432267784459</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>4.1780821917808221E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.6801498313568527E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J15">
-        <v>4.5076328793700007E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15">
-        <v>0.1979747112817225</v>
+        <v>0.16673481598259954</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J16">
-        <v>0.21904557675108052</v>
+        <v>0.10999510009090437</v>
       </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J17">
-        <v>2.7976368189220828E-2</v>
+        <v>1.4036089532426842E-2</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J18">
-        <v>0.25203432267784459</v>
+        <v>0.12642919821216442</v>
       </c>
     </row>
     <row r="19" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J19">
-        <v>0.16673481598259954</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20">
-        <v>5.5045035485165997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21">
-        <v>7.0105690439994078E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22">
-        <v>6.3147513190902629E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23">
-        <v>4.1828482609712676E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24">
-        <v>5.4950064605738376E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26">
-        <v>6.3281685021261788E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27">
-        <v>4.1920045954046248E-2</v>
+        <v>8.3748528563758931E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CD05D-7049-4792-902E-42533FD0EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B330A31-AF19-4E2C-86EB-CEC3AD3F5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH4,S2aH1,S1aH1,S1aH4</t>
+    <t>S2aH2,S1aH2,S2aH3,S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH4,S2aH1,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH4,S2aH1,S1aH1,S1aH4</v>
+        <v>S1aH1,S2aH4,S2aH1,S1aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
+        <v>S2aH2,S1aH2,S2aH3,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738ED1A4-6966-44F9-8E38-2C5B72221F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF09108-39E3-4841-BE11-51BB4E70DBFB}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015BE28-A861-4421-95D8-2A41BFEFA742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1747E01B-9F46-449A-B507-27281B846BE6}">
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1764,7 +1764,7 @@
         <v>75</v>
       </c>
       <c r="N5">
-        <v>0.85512494215640922</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O5" t="s">
         <v>109</v>
@@ -1932,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B983D7-0D67-476B-B23C-1432836C190F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A88A12C-8E92-4DCF-B02E-5ADFE3844CA6}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B330A31-AF19-4E2C-86EB-CEC3AD3F5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79462542-FD45-4418-903F-2F751AF0EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH2,S1aH2,S2aH3,S1aH3</t>
-  </si>
-  <si>
-    <t>S1aH1,S2aH4,S2aH1,S1aH4</t>
+    <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH4,S1aH4,S2aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S2aH4,S2aH1,S1aH4</v>
+        <v>S1aH1,S2aH4,S1aH4,S2aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH2,S1aH2,S2aH3,S1aH3</v>
+        <v>S1aH3,S2aH2,S1aH2,S2aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF09108-39E3-4841-BE11-51BB4E70DBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20CA28-9F46-4293-B23D-6C79921FD5CB}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1747E01B-9F46-449A-B507-27281B846BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C835E3B-C44B-41AE-86F4-012E96E6F171}">
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1932,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A88A12C-8E92-4DCF-B02E-5ADFE3844CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7D0D9-9285-43D4-9D5C-5CE9747982AB}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79462542-FD45-4418-903F-2F751AF0EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E8575-03F7-4A09-B7CD-08CF236397BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,7 +351,7 @@
     <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
   </si>
   <si>
-    <t>S1aH1,S2aH4,S1aH4,S2aH1</t>
+    <t>S2aH1,S1aH1,S2aH4,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH1,S2aH4,S1aH4,S2aH1</v>
+        <v>S2aH1,S1aH1,S2aH4,S1aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C20CA28-9F46-4293-B23D-6C79921FD5CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F487B717-7153-4616-ACAA-7CC5D42AF2F0}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C835E3B-C44B-41AE-86F4-012E96E6F171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6CAF78-C60E-4108-A344-D90A7DDA50FB}">
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,10 +1726,10 @@
         <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>109</v>
@@ -1761,10 +1761,10 @@
         <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>109</v>
@@ -1932,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C7D0D9-9285-43D4-9D5C-5CE9747982AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1DED0-4828-44AF-8256-7A9C7A3D2E16}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9E8575-03F7-4A09-B7CD-08CF236397BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A971B-FC71-42A1-AF3F-352B9C3960BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,7 +351,7 @@
     <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
   </si>
   <si>
-    <t>S2aH1,S1aH1,S2aH4,S1aH4</t>
+    <t>S2aH1,S1aH4,S2aH4,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH1,S2aH4,S1aH4</v>
+        <v>S2aH1,S1aH4,S2aH4,S1aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F487B717-7153-4616-ACAA-7CC5D42AF2F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFE764-0EE5-4887-B854-283CFF2007FD}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6CAF78-C60E-4108-A344-D90A7DDA50FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FC984C-044C-4AC2-B62C-929FEF51127C}">
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,10 +1726,10 @@
         <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
         <v>109</v>
@@ -1761,10 +1761,10 @@
         <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.3448750578435909</v>
+        <v>0.85512494215640922</v>
       </c>
       <c r="O5" t="s">
         <v>109</v>
@@ -1932,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1DED0-4828-44AF-8256-7A9C7A3D2E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8D2C3E-0CFA-4DA0-874C-0F3D194E822C}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A971B-FC71-42A1-AF3F-352B9C3960BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AD9196-92FD-4BF7-A12E-83BF95C904ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
   <si>
     <t>UC_N</t>
   </si>
@@ -252,6 +252,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -291,7 +294,13 @@
     <t>H4</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>com_fr</t>
@@ -300,7 +309,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>commodity</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>S1aH1</t>
@@ -309,9 +318,6 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
     <t>S1aH2</t>
   </si>
   <si>
@@ -333,12 +339,12 @@
     <t>S2aH4</t>
   </si>
   <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
     <t>elc_won-ITA</t>
   </si>
   <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
     <t>g_yrfr</t>
   </si>
   <si>
@@ -348,10 +354,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
-  </si>
-  <si>
-    <t>S2aH1,S1aH4,S2aH4,S1aH1</t>
+    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH4,S2aH1,S1aH4,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -363,6 +369,9 @@
     <t>com_pkflx</t>
   </si>
   <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
     <t>ncap_afs</t>
   </si>
   <si>
@@ -370,16 +379,18 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +444,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +495,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -499,6 +555,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -510,7 +596,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,6 +612,24 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -548,6 +652,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570E432B-F4D8-FA99-CEB9-5A6FC2DDBA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C7644E-F3DD-CE39-6280-A7F00EFACD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ECB4BA-F3FC-6A21-4E6E-65FB6A5D8FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,7 +1192,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH4,S2aH4,S1aH1</v>
+        <v>S2aH4,S2aH1,S1aH4,S1aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +1224,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S2aH2,S1aH2,S2aH3</v>
+        <v>S1aH3,S1aH2,S2aH3,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -967,7 +1236,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -978,7 +1247,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -986,7 +1255,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1568,765 +1837,958 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AFE764-0EE5-4887-B854-283CFF2007FD}">
-  <dimension ref="B2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880FD9D2-B205-49B8-A9D3-0F2D98F1C51E}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FC984C-044C-4AC2-B62C-929FEF51127C}">
-  <dimension ref="B2:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E06A847-28DC-4556-A03E-0F0BFD7DF1D2}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="16">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="26">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="18">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D17" s="15">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>2.493544E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I17" s="17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4">
-        <v>0.21482071822838189</v>
-      </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4">
-        <v>0.3448750578435909</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>3.9224370000000001E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>2.7641735376428118E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="D18" s="16">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5">
-        <v>0.85512494215640922</v>
-      </c>
-      <c r="O5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="I18" s="18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C6">
-        <v>0.59627662000000003</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="L18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I6">
-        <v>0.29032781991893586</v>
-      </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>6.6934690000000005E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7">
-        <v>0.16935106740660433</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8">
-        <v>1.1604300000000001E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8">
-        <v>9.7906899623079788E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9">
-        <v>1.0125790000000001E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9">
-        <v>1.2133811730211863E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10">
-        <v>0.25384706000000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10">
-        <v>0.11475153684469283</v>
-      </c>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11">
-        <v>7.4955500000000001E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11">
-        <v>7.306641087148831E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8D2C3E-0CFA-4DA0-874C-0F3D194E822C}">
-  <dimension ref="B2:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4593A1-6807-4487-8C33-173595991665}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.39943788609404285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="18">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.16360291619848955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="18">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C15" s="17">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="17">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C16" s="18">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" s="18">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I17" s="17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M17" s="17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.22191780821917809</v>
-      </c>
-      <c r="C4">
-        <v>0.12300126793128308</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4">
-        <v>0.18743958210833722</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="K18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4">
-        <v>0.38532663933908951</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>2.7739726027397261E-2</v>
-      </c>
-      <c r="C5">
-        <v>3.5442408572209934E-2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="L18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G19" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>3.0879940804379922E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5">
-        <v>0.14815607348908388</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>0.24965753424657533</v>
-      </c>
-      <c r="C6">
-        <v>0.36070705815080928</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>0.28100878138966023</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6">
-        <v>0.18114041310354478</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0.16643835616438357</v>
-      </c>
-      <c r="C7">
-        <v>0.14660269000323201</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I19" s="17">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>0.17122948990779774</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7">
-        <v>0.26952522576045035</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.11141552511415526</v>
-      </c>
-      <c r="C8">
-        <v>6.1753722994306731E-2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I20" s="18">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>9.220596741667357E-2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8">
-        <v>0.37856311918249053</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>1.3926940639269407E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.7794131052714456E-2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I21" s="17">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>1.5111496651677339E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9">
-        <v>0.15698859464131165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.12534246575342467</v>
-      </c>
-      <c r="C10">
-        <v>0.18109572466830753</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I22" s="18">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0.13730909441362815</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10">
-        <v>0.17478635380331653</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>8.3561643835616442E-2</v>
-      </c>
-      <c r="C11">
-        <v>7.3602996627137054E-2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I23" s="17">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>8.4815647307845868E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11">
-        <v>0.25737885592329413</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12">
-        <v>0.21904557675108052</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <v>2.7976368189220828E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14">
-        <v>0.25203432267784459</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15">
-        <v>0.16673481598259954</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16">
-        <v>0.10999510009090437</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17">
-        <v>1.4036089532426842E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18">
-        <v>0.12642919821216442</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19">
-        <v>8.3748528563758931E-2</v>
+      <c r="I24" s="18">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="17">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4.8976173729118958E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AD9196-92FD-4BF7-A12E-83BF95C904ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098CD4B2-851F-47F7-9FA7-60FB51A5741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -354,10 +354,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH4,S2aH1,S1aH4,S1aH1</t>
+    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -674,7 +674,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570E432B-F4D8-FA99-CEB9-5A6FC2DDBA2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8D83FA-F282-6C15-F7A1-77A6AB6D8669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -729,7 +729,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C7644E-F3DD-CE39-6280-A7F00EFACD06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09A447A-DF2B-B890-E8BF-AB385805E36C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,7 +784,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ECB4BA-F3FC-6A21-4E6E-65FB6A5D8FF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A23FBE4-BE35-243D-2B01-18286EE0A7DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH4,S2aH1,S1aH4,S1aH1</v>
+        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1aH2,S2aH3,S2aH2</v>
+        <v>S1aH2,S2aH3,S2aH2,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1837,7 +1837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880FD9D2-B205-49B8-A9D3-0F2D98F1C51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE48B2F1-839E-48A1-94A6-4D4983C2ACF0}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E06A847-28DC-4556-A03E-0F0BFD7DF1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AFFAC4-6A8E-4EB8-A43F-BBC86E66B6A2}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2124,7 +2124,7 @@
         <v>76</v>
       </c>
       <c r="R12" s="26">
-        <v>1.0373322535863025</v>
+        <v>1.0373322535863028</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>112</v>
@@ -2368,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4593A1-6807-4487-8C33-173595991665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBFBB4E-BFD0-41FC-A2B2-517FD12F1F7A}">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098CD4B2-851F-47F7-9FA7-60FB51A5741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{717D4484-3910-4FCA-A6EC-4BAA51EC4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="112">
   <si>
     <t>UC_N</t>
   </si>
@@ -294,9 +294,6 @@
     <t>H4</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
-  </si>
-  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -354,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
-  </si>
-  <si>
-    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
+    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH4,S1aH4,S2aH1,S1aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -385,12 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,35 +436,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,26 +460,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -555,36 +502,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -596,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,24 +529,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -652,171 +551,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8D83FA-F282-6C15-F7A1-77A6AB6D8669}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09A447A-DF2B-B890-E8BF-AB385805E36C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A23FBE4-BE35-243D-2B01-18286EE0A7DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
+        <v>S2aH4,S1aH4,S2aH1,S1aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1224,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S2aH2,S1aH3</v>
+        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1236,7 +970,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1247,7 +981,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1255,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1837,958 +1571,876 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE48B2F1-839E-48A1-94A6-4D4983C2ACF0}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B1520-609A-4F18-ADF2-00DC114C1874}">
+  <dimension ref="B9:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="6" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AFFAC4-6A8E-4EB8-A43F-BBC86E66B6A2}">
-  <dimension ref="A1:S18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949DA490-A195-450B-8587-6D5BCFD68CC8}">
+  <dimension ref="B9:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-    <col min="17" max="19" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="S10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12">
+        <v>1.0373322535863025</v>
+      </c>
+      <c r="S12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="Q10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="E13" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="15">
-        <v>5.494129233392326E-2</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="17">
-        <v>0.26073447921315601</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="13" t="s">
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="E14" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="19">
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="J14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="24">
-        <v>0.16266774641369736</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="16">
-        <v>6.1887757755837457E-2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3.1242262740711402E-2</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12" s="26">
-        <v>1.0373322535863028</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.69268101163307605</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.29027872858556963</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="19">
+      <c r="M16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="16">
-        <v>9.7787453472504768E-2</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.24342285181757803</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="15">
-        <v>4.896936097582037E-4</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" t="s">
         <v>99</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="17">
-        <v>5.8072729744006978E-2</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="19">
+      <c r="M18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="16">
-        <v>4.8235789482883535E-3</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="18">
-        <v>7.120478132112207E-3</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="15">
-        <v>8.5702982161334179E-2</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="17">
-        <v>5.8809210602448606E-2</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="19">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1.6862300850866115E-3</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="18">
-        <v>5.0319259164211566E-2</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>91</v>
+      <c r="O18" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBFBB4E-BFD0-41FC-A2B2-517FD12F1F7A}">
-  <dimension ref="A1:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66478A0-F13A-42C3-A86B-B7412495509C}">
+  <dimension ref="B9:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="C11">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11">
+        <v>0.39943788609404285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12">
+        <v>0.16360291619848955</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13">
         <v>0.27762557077625571</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.15387812942843648</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="C13">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="C14">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="C16">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="C17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="C18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.2313419026170857</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0.39943788609404285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="18">
-        <v>3.4703196347031964E-2</v>
-      </c>
-      <c r="C12" s="18">
-        <v>4.4339474098567179E-2</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="I21">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="18">
-        <v>3.7992871294534346E-2</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0.16360291619848955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0.3837379940166904</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="I22">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.30694765460925511</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0.19801264323379142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="18">
-        <v>0.24292237442922374</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.25092111478507323</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="H23" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="I23">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.2497015680449729</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0.27107344605999706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C15" s="17">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="H24" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="I24">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="17">
-        <v>4.8303646907925109E-2</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.33115646790490216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C16" s="18">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="H25" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="I25">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="18">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0.10528395697637927</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C17" s="17">
-        <v>7.7000058009927999E-2</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="17">
-        <v>6.4256093433203029E-2</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.1139698900628332</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5.0349302637794295E-2</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="18">
-        <v>5.3457696931500959E-2</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0.18212079901465139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.27409061223624648</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="18">
-        <v>3.4986937233220237E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G21" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.28013574017878146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G22" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0.24360939428227799</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G23" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="17">
-        <v>5.4950064605738376E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="18">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G25" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="17">
-        <v>5.6225557246189072E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="18">
+      <c r="I26">
         <v>4.8976173729118958E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{717D4484-3910-4FCA-A6EC-4BAA51EC4D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5267773-4BD5-4E7F-8E3F-5A2290E08511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH4,S1aH4,S2aH1,S1aH1</t>
+    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
+  </si>
+  <si>
+    <t>S1aH1,S2aH4,S1aH4,S2aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH4,S1aH4,S2aH1,S1aH1</v>
+        <v>S1aH1,S2aH4,S1aH4,S2aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
+        <v>S1aH3,S1aH2,S2aH3,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6B1520-609A-4F18-ADF2-00DC114C1874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD73ACD-FFAB-4B6A-A666-E0E8D0D209F0}">
   <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1650,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949DA490-A195-450B-8587-6D5BCFD68CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A3998-7C2A-4040-B63C-9678C2ABDB06}">
   <dimension ref="B9:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2046,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66478A0-F13A-42C3-A86B-B7412495509C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD51D0E5-911D-4C78-BFFC-85A6F6A4F0AD}">
   <dimension ref="B9:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFEF83EE-AD33-4B97-8D92-2A51C49BBC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
-    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +75,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -250,132 +265,6 @@
   </si>
   <si>
     <t>timeslice</t>
-  </si>
-  <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>wparent</t>
-  </si>
-  <si>
-    <t>dparent</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>S1,S2</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>S1aH1</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>S1aH2</t>
-  </si>
-  <si>
-    <t>S1aH3</t>
-  </si>
-  <si>
-    <t>S1aH4</t>
-  </si>
-  <si>
-    <t>S2aH1</t>
-  </si>
-  <si>
-    <t>S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH3</t>
-  </si>
-  <si>
-    <t>S2aH4</t>
-  </si>
-  <si>
-    <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
-  </si>
-  <si>
-    <t>S2aH1,S1aH1,S2aH4,S1aH4</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -852,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +757,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -889,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -904,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -912,21 +801,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH1,S2aH4,S1aH4</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -944,21 +833,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -970,26 +859,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1017,1428 +906,553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4EFE1C-E1A7-4A23-A0D6-FBF1D42FC715}">
-  <dimension ref="B9:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C882C890-50E8-445A-89F5-2F015BFE6ED7}">
-  <dimension ref="B9:S18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11">
-        <v>5.494129233392326E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11">
-        <v>0.26073447921315601</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11">
-        <v>0.27463091742222551</v>
-      </c>
-      <c r="O11" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11">
-        <v>0.16266774641369736</v>
-      </c>
-      <c r="S11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12">
-        <v>6.1887757755837457E-2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12">
-        <v>3.1242262740711402E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12">
-        <v>3.2992217990046896E-2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>76</v>
-      </c>
-      <c r="R12">
-        <v>1.0373322535863025</v>
-      </c>
-      <c r="S12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13">
-        <v>0.69268101163307605</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13">
-        <v>0.29027872858556963</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13">
-        <v>0.27254417104690487</v>
-      </c>
-      <c r="O13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14">
-        <v>9.7787453472504768E-2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14">
-        <v>0.24342285181757803</v>
-      </c>
-      <c r="J14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14">
-        <v>0.25011876183276338</v>
-      </c>
-      <c r="O14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15">
-        <v>4.896936097582037E-4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15">
-        <v>5.8072729744006978E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15">
-        <v>5.8167440438757136E-2</v>
-      </c>
-      <c r="O15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16">
-        <v>4.8235789482883535E-3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16">
-        <v>7.120478132112207E-3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16">
-        <v>6.7986277207287031E-3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17">
-        <v>8.5702982161334179E-2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17">
-        <v>5.8809210602448606E-2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17">
-        <v>5.3564233598422953E-2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18">
-        <v>1.6862300850866115E-3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18">
-        <v>5.0319259164211566E-2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" t="s">
-        <v>97</v>
-      </c>
-      <c r="N18">
-        <v>5.1183629949946789E-2</v>
-      </c>
-      <c r="O18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A78E88-54D8-459C-97A6-E2B2C695EBC1}">
-  <dimension ref="B9:M26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="C11">
-        <v>0.15387812942843648</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11">
-        <v>0.2313419026170857</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11">
-        <v>0.39943788609404285</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>3.4703196347031964E-2</v>
-      </c>
-      <c r="C12">
-        <v>4.4339474098567179E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12">
-        <v>3.7992871294534346E-2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12">
-        <v>0.16360291619848955</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>0.27762557077625571</v>
-      </c>
-      <c r="C13">
-        <v>0.3837379940166904</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13">
-        <v>0.30694765460925511</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13">
-        <v>0.19801264323379142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>0.24292237442922374</v>
-      </c>
-      <c r="C14">
-        <v>0.25092111478507323</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14">
-        <v>0.2497015680449729</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14">
-        <v>0.27107344605999706</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.0876861497153366E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15">
-        <v>4.8303646907925109E-2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15">
-        <v>0.33115646790490216</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>6.9634703196347035E-3</v>
-      </c>
-      <c r="C16">
-        <v>8.8970655263572278E-3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16">
-        <v>7.9985661615229135E-3</v>
-      </c>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M16">
-        <v>0.10528395697637927</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>5.5707762557077628E-2</v>
-      </c>
-      <c r="C17">
-        <v>7.7000058009927999E-2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17">
-        <v>6.4256093433203029E-2</v>
-      </c>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17">
-        <v>0.1139698900628332</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>4.8744292237442921E-2</v>
-      </c>
-      <c r="C18">
-        <v>5.0349302637794295E-2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18">
-        <v>5.3457696931500959E-2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18">
-        <v>0.18212079901465139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19">
-        <v>0.27409061223624648</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20">
-        <v>3.4986937233220237E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21">
-        <v>0.28013574017878146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22">
-        <v>0.24360939428227799</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23">
-        <v>5.4950064605738376E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24">
-        <v>7.0255204884274343E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25">
-        <v>5.6225557246189072E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26">
-        <v>4.8976173729118958E-2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B0EEB5-BD54-4FAB-95A7-13DB5CB57359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="ts12_clu" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="100">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +76,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -265,6 +248,96 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>S1aH1</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>S1aH2</t>
+  </si>
+  <si>
+    <t>S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH4</t>
+  </si>
+  <si>
+    <t>S2aH1</t>
+  </si>
+  <si>
+    <t>S2aH2</t>
+  </si>
+  <si>
+    <t>S2aH3</t>
+  </si>
+  <si>
+    <t>S2aH4</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>S1</t>
   </si>
 </sst>
 </file>
@@ -741,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +830,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -778,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -793,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -801,21 +874,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -833,21 +906,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>S1aH2,S2aH3,S2aH2,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -859,26 +932,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -906,553 +979,1316 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A19C246-1971-4C6F-BB47-A746375AC022}">
+  <dimension ref="B9:AF26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>5.494129233392326E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>0.26073447921315601</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>0.27463091742222551</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="R11">
+        <v>0.15387812942843648</v>
+      </c>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11">
+        <v>0.2313419026170857</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11">
+        <v>0.39943788609404285</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE11">
+        <v>0.16266774641369736</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>6.1887757755837457E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>3.1242262740711402E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12">
+        <v>3.2992217990046896E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12">
+        <v>3.4703196347031964E-2</v>
+      </c>
+      <c r="R12">
+        <v>4.4339474098567179E-2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12">
+        <v>3.7992871294534346E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12">
+        <v>0.16360291619848955</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12">
+        <v>1.0373322535863028</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>0.69268101163307605</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>0.29027872858556963</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>0.27254417104690487</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13">
+        <v>0.27762557077625571</v>
+      </c>
+      <c r="R13">
+        <v>0.3837379940166904</v>
+      </c>
+      <c r="S13" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13">
+        <v>0.30694765460925511</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13">
+        <v>0.19801264323379142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>9.7787453472504768E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>0.24342285181757803</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14">
+        <v>0.25011876183276338</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14">
+        <v>0.24292237442922374</v>
+      </c>
+      <c r="R14">
+        <v>0.25092111478507323</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14">
+        <v>0.2497015680449729</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14">
+        <v>0.27107344605999706</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>4.896936097582037E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>5.8072729744006978E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>5.8167440438757136E-2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="R15">
+        <v>3.0876861497153366E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15">
+        <v>4.8303646907925109E-2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15">
+        <v>0.33115646790490216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>4.8235789482883535E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>7.120478132112207E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16">
+        <v>6.7986277207287031E-3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16">
+        <v>6.9634703196347035E-3</v>
+      </c>
+      <c r="R16">
+        <v>8.8970655263572278E-3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16">
+        <v>7.9985661615229135E-3</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB16">
+        <v>0.10528395697637927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>8.5702982161334179E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17">
+        <v>5.8809210602448606E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17">
+        <v>5.3564233598422953E-2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17">
+        <v>5.5707762557077628E-2</v>
+      </c>
+      <c r="R17">
+        <v>7.7000058009927999E-2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17" t="s">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>6.4256093433203029E-2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB17">
+        <v>0.1139698900628332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>1.6862300850866115E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18">
+        <v>5.0319259164211566E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18">
+        <v>5.1183629949946789E-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18">
+        <v>4.8744292237442921E-2</v>
+      </c>
+      <c r="R18">
+        <v>5.0349302637794295E-2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>83</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18">
+        <v>5.3457696931500959E-2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB18">
+        <v>0.18212079901465139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W19" t="s">
+        <v>75</v>
+      </c>
+      <c r="X19">
+        <v>0.27409061223624648</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V20" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" t="s">
+        <v>77</v>
+      </c>
+      <c r="X20">
+        <v>3.4986937233220237E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V21" t="s">
+        <v>92</v>
+      </c>
+      <c r="W21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21">
+        <v>0.28013574017878146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V22" t="s">
+        <v>92</v>
+      </c>
+      <c r="W22" t="s">
+        <v>79</v>
+      </c>
+      <c r="X22">
+        <v>0.24360939428227799</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V23" t="s">
+        <v>92</v>
+      </c>
+      <c r="W23" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23">
+        <v>5.4950064605738376E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V24" t="s">
+        <v>92</v>
+      </c>
+      <c r="W24" t="s">
+        <v>81</v>
+      </c>
+      <c r="X24">
+        <v>7.0255204884274343E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V25" t="s">
+        <v>92</v>
+      </c>
+      <c r="W25" t="s">
+        <v>82</v>
+      </c>
+      <c r="X25">
+        <v>5.6225557246189072E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V26" t="s">
+        <v>92</v>
+      </c>
+      <c r="W26" t="s">
+        <v>83</v>
+      </c>
+      <c r="X26">
+        <v>4.8976173729118958E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E2F79C-5D3F-430B-99A7-74C2197B979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3F3FFC-7418-4300-B168-AAA90B3AB5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -201,7 +201,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>S1aH1,S2aH1,S2aH4,S1aH4</t>
+    <t>S1aH1,S2aH4,S2aH1,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -701,7 +701,7 @@
   <dimension ref="A10:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -752,7 +752,7 @@
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3" t="str">
-        <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
+        <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
         <v>~UC_T: LO</v>
       </c>
     </row>
@@ -803,8 +803,8 @@
         <v>9</v>
       </c>
       <c r="H23" t="str">
-        <f>C12</f>
-        <v>N</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
+        <v>S1aH1,S2aH4,S2aH1,S1aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -835,8 +835,8 @@
         <v>9</v>
       </c>
       <c r="H24" t="str">
-        <f>C11</f>
-        <v>D</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
+        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FA0A5F-747A-4DDC-B0F3-3F8DA1FC5340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F623F2A8-3F78-4B91-8943-81A5A93909DF}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1075,10 +1075,10 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM11" t="s">
         <v>59</v>
@@ -1161,10 +1161,10 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL12">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM12" t="s">
         <v>59</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3F3FFC-7418-4300-B168-AAA90B3AB5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A7A47E-D285-4831-AD11-01111A3A7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -195,13 +195,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
+    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH1,S2aH4,S2aH1,S1aH4</t>
+    <t>S1aH4,S1aH1,S2aH1,S2aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -804,7 +804,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH1,S2aH4,S2aH1,S1aH4</v>
+        <v>S1aH4,S1aH1,S2aH1,S2aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -836,7 +836,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
+        <v>S1aH3,S1aH2,S2aH3,S2aH2</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F623F2A8-3F78-4B91-8943-81A5A93909DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB3BD8F-50C4-4959-B1CA-46E94FA5A44B}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A7A47E-D285-4831-AD11-01111A3A7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{374DB466-1F30-4ADE-8DB6-6D6806401177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>UC_N</t>
   </si>
@@ -195,13 +195,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S1aH2,S2aH3,S2aH2</t>
+    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH4,S1aH1,S2aH1,S2aH4</t>
+    <t>S2aH1,S1aH1,S2aH4,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -804,7 +807,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH4,S1aH1,S2aH1,S2aH4</v>
+        <v>S2aH1,S1aH1,S2aH4,S1aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -836,7 +839,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S1aH2,S2aH3,S2aH2</v>
+        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -852,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB3BD8F-50C4-4959-B1CA-46E94FA5A44B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC973E-485F-46B3-BE8A-7B3C820042C1}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -982,10 +985,10 @@
         <v>32</v>
       </c>
       <c r="AL10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1066,7 +1069,7 @@
         <v>0.2313419026170857</v>
       </c>
       <c r="AG11" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH11" t="s">
         <v>36</v>
@@ -1075,13 +1078,13 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -1152,7 +1155,7 @@
         <v>3.7992871294534346E-2</v>
       </c>
       <c r="AG12" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH12" t="s">
         <v>38</v>
@@ -1161,13 +1164,13 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -1235,7 +1238,7 @@
         <v>0.30694765460925511</v>
       </c>
       <c r="AG13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH13" t="s">
         <v>39</v>
@@ -1309,7 +1312,7 @@
         <v>0.2497015680449729</v>
       </c>
       <c r="AG14" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH14" t="s">
         <v>40</v>
@@ -1377,7 +1380,7 @@
         <v>4.8303646907925109E-2</v>
       </c>
       <c r="AG15" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH15" t="s">
         <v>41</v>
@@ -1445,7 +1448,7 @@
         <v>7.9985661615229135E-3</v>
       </c>
       <c r="AG16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH16" t="s">
         <v>42</v>
@@ -1513,7 +1516,7 @@
         <v>6.4256093433203029E-2</v>
       </c>
       <c r="AG17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH17" t="s">
         <v>43</v>
@@ -1581,7 +1584,7 @@
         <v>5.3457696931500959E-2</v>
       </c>
       <c r="AG18" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="AH18" t="s">
         <v>44</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{374DB466-1F30-4ADE-8DB6-6D6806401177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4F32D8-8C51-4EB6-B429-7872BC3CC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -195,13 +195,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S2aH2</t>
+    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S1aH1,S2aH4,S1aH4</t>
+    <t>S2aH4,S1aH1,S1aH4,S2aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -807,7 +807,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH1,S1aH1,S2aH4,S1aH4</v>
+        <v>S2aH4,S1aH1,S1aH4,S2aH1</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -839,7 +839,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH2,S2aH3,S1aH3,S2aH2</v>
+        <v>S1aH2,S2aH3,S2aH2,S1aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC973E-485F-46B3-BE8A-7B3C820042C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9B2D82-474E-4750-9A37-929A8FA993E4}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1078,10 +1078,10 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM11" t="s">
         <v>60</v>
@@ -1164,10 +1164,10 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL12">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM12" t="s">
         <v>60</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4F32D8-8C51-4EB6-B429-7872BC3CC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04904126-9EE1-414A-9EB2-1FF9F3290BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="60">
   <si>
     <t>UC_N</t>
   </si>
@@ -195,13 +195,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S2aH2,S1aH3</t>
+    <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH4,S1aH1,S1aH4,S2aH1</t>
+    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -807,7 +804,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH4,S1aH1,S1aH4,S2aH1</v>
+        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -839,7 +836,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH2,S2aH3,S2aH2,S1aH3</v>
+        <v>S1aH3,S2aH2,S1aH2,S2aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -855,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9B2D82-474E-4750-9A37-929A8FA993E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB15855A-B2C7-4820-ABF7-789FDAF31D7B}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -985,10 +982,10 @@
         <v>32</v>
       </c>
       <c r="AL10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" t="s">
         <v>58</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1069,7 +1066,7 @@
         <v>0.2313419026170857</v>
       </c>
       <c r="AG11" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="s">
         <v>36</v>
@@ -1078,13 +1075,13 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -1155,7 +1152,7 @@
         <v>3.7992871294534346E-2</v>
       </c>
       <c r="AG12" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="s">
         <v>38</v>
@@ -1164,13 +1161,13 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -1238,7 +1235,7 @@
         <v>0.30694765460925511</v>
       </c>
       <c r="AG13" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="s">
         <v>39</v>
@@ -1312,7 +1309,7 @@
         <v>0.2497015680449729</v>
       </c>
       <c r="AG14" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="s">
         <v>40</v>
@@ -1380,7 +1377,7 @@
         <v>4.8303646907925109E-2</v>
       </c>
       <c r="AG15" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="s">
         <v>41</v>
@@ -1448,7 +1445,7 @@
         <v>7.9985661615229135E-3</v>
       </c>
       <c r="AG16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="s">
         <v>42</v>
@@ -1516,7 +1513,7 @@
         <v>6.4256093433203029E-2</v>
       </c>
       <c r="AG17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="s">
         <v>43</v>
@@ -1584,7 +1581,7 @@
         <v>5.3457696931500959E-2</v>
       </c>
       <c r="AG18" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="s">
         <v>44</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04904126-9EE1-414A-9EB2-1FF9F3290BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B655A2E7-7EFE-4E19-A892-82D1AB66314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB15855A-B2C7-4820-ABF7-789FDAF31D7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E3F950-F4B5-42EF-8321-A9022E479B84}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1075,10 +1075,10 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM11" t="s">
         <v>59</v>
@@ -1161,10 +1161,10 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL12">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM12" t="s">
         <v>59</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B655A2E7-7EFE-4E19-A892-82D1AB66314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA9EC12-8896-4968-9E3E-04BF0F6E36D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -195,13 +195,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S2aH2,S1aH2,S2aH3</t>
+    <t>S2aH2,S1aH3,S1aH2,S2aH3</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2aH1,S1aH4,S1aH1,S2aH4</t>
+    <t>S1aH1,S2aH4,S2aH1,S1aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -804,7 +804,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2aH1,S1aH4,S1aH1,S2aH4</v>
+        <v>S1aH1,S2aH4,S2aH1,S1aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -836,7 +836,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S2aH2,S1aH2,S2aH3</v>
+        <v>S2aH2,S1aH3,S1aH2,S2aH3</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E3F950-F4B5-42EF-8321-A9022E479B84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E2B3C6-3607-427C-A441-5B288A487A9F}">
   <dimension ref="A9:AM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1075,10 +1075,10 @@
         <v>0.39943788609404285</v>
       </c>
       <c r="AK11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL11">
-        <v>0.16266774641369736</v>
+        <v>1.0373322535863025</v>
       </c>
       <c r="AM11" t="s">
         <v>59</v>
@@ -1161,10 +1161,10 @@
         <v>0.16360291619848955</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL12">
-        <v>1.0373322535863025</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="AM12" t="s">
         <v>59</v>
